--- a/public/templates/job_template.xlsx
+++ b/public/templates/job_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D1BB94-540A-4314-8EDA-EEE7BF182E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0081474C-A4A2-415C-A366-E65D80DC3DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A81ECB9-C670-4E76-A2C9-97554337BBBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3A81ECB9-C670-4E76-A2C9-97554337BBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="job_template" sheetId="1" r:id="rId1"/>
@@ -504,21 +504,12 @@
     <t>Legal and Accounting Activities</t>
   </si>
   <si>
-    <t>Activities of Head Offices, Management Consultancy Activities</t>
-  </si>
-  <si>
-    <t>Architecture and Engineering Activities; Technical Testing and Analysis</t>
-  </si>
-  <si>
     <t>Scientific Research and Development</t>
   </si>
   <si>
     <t>Advertising and Market Research</t>
   </si>
   <si>
-    <t>Other Professional Scientific and Technical Activities</t>
-  </si>
-  <si>
     <t>Veterinary Activities</t>
   </si>
   <si>
@@ -537,9 +528,6 @@
     <t>Services to Buildings and Landscape Activities</t>
   </si>
   <si>
-    <t>Office Admiministrative, Office Support and Other Business Support Activities</t>
-  </si>
-  <si>
     <t>Public Administration and Defense; Compulsory Social Security</t>
   </si>
   <si>
@@ -652,6 +640,18 @@
   </si>
   <si>
     <t>Finance Department</t>
+  </si>
+  <si>
+    <t>Activities of Head Offices; Management Consultancy Activities</t>
+  </si>
+  <si>
+    <t>Architectural and Engineering Activities; Technical Testing and Analysis</t>
+  </si>
+  <si>
+    <t>Other Professional, Scientific and Technical Activities</t>
+  </si>
+  <si>
+    <t>Office Administrative, Office Support and Other Business Support Activities</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0EB7D8-8F5D-48AB-AB26-A196F66F9646}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1633,10 +1633,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -1645,13 +1645,13 @@
         <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -1683,22 +1683,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -1766,7 +1766,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2009,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90FCB25-BF3B-4D31-B638-3ABCD27C691B}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2645,7 +2645,7 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2700,7 +2700,7 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2711,7 +2711,7 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2733,7 +2733,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2744,7 +2744,7 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2755,7 +2755,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2766,7 +2766,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2777,7 +2777,7 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2788,7 +2788,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2799,7 +2799,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2810,7 +2810,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2832,7 +2832,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2843,7 +2843,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2854,7 +2854,7 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2865,7 +2865,7 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2876,7 +2876,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2887,7 +2887,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2898,7 +2898,7 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2909,7 +2909,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2920,7 +2920,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2931,7 +2931,7 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2942,7 +2942,7 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2953,7 +2953,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2964,7 +2964,7 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2975,7 +2975,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2986,7 +2986,7 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -3014,71 +3014,71 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
         <v>192</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
